--- a/Prestandabudget.xlsx
+++ b/Prestandabudget.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">timeToFirstImage:  </t>
   </si>
@@ -41,20 +41,26 @@
     <t xml:space="preserve">headersSize:  </t>
   </si>
   <si>
-    <t>LINAS MATKASSSE</t>
-  </si>
-  <si>
     <t>To Beat</t>
   </si>
   <si>
     <t>Our</t>
+  </si>
+  <si>
+    <t>ICA vs FEKA</t>
+  </si>
+  <si>
+    <t>ICA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0\ _k_r"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +68,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,13 +126,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bra" xfId="1" builtinId="26"/>
+    <cellStyle name="Dålig" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,88 +454,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B3E4F6-0FAD-4D7F-BB1E-08FADDADCF3D}">
-  <dimension ref="B1:H7"/>
+  <dimension ref="B2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="2" spans="2:10" ht="32.25" x14ac:dyDescent="0.5">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="1">
         <v>466</v>
       </c>
-      <c r="F3">
-        <f>0.8*D3</f>
-        <v>372.8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1135</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="1">
         <v>5953020</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F7" si="0">0.8*D4</f>
-        <v>4762416</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1305666</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3">
+        <v>6555362</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="1">
         <v>275061</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>220048.80000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1205517</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2">
+        <v>103258</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="1">
         <v>3482</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>2785.6000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>183312</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2">
+        <v>14830</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="1">
         <v>41118</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>32894.400000000001</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>44070</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2">
+        <v>11199</v>
+      </c>
+    </row>
+    <row r="24" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Prestandabudget.xlsx
+++ b/Prestandabudget.xlsx
@@ -58,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0\ _k_r"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ _k_r"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -133,9 +133,9 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -457,7 +457,7 @@
   <dimension ref="B2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,8 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
-        <v>1135</v>
+        <f>0.8*D4</f>
+        <v>372.8</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2">
@@ -510,7 +511,8 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <v>1305666</v>
+        <f t="shared" ref="F5:F8" si="0">0.8*D5</f>
+        <v>4762416</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3">
@@ -527,7 +529,8 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <v>1205517</v>
+        <f t="shared" si="0"/>
+        <v>220048.80000000002</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="2">
@@ -543,7 +546,8 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>183312</v>
+        <f t="shared" si="0"/>
+        <v>2785.6000000000004</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2">
@@ -559,7 +563,8 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <v>44070</v>
+        <f t="shared" si="0"/>
+        <v>32894.400000000001</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="2">

--- a/Prestandabudget.xlsx
+++ b/Prestandabudget.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="B2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +550,7 @@
         <v>2785.6000000000004</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>14830</v>
       </c>
     </row>
